--- a/biology/Botanique/Terrasses-du-larzac/Terrasses-du-larzac.xlsx
+++ b/biology/Botanique/Terrasses-du-larzac/Terrasses-du-larzac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le terrasses-du-larzac[1],[4] est un vin produit au nord-ouest de Montpellier, autour de la commune d'Aniane. Il s'agit d'une AOC à part entière dans la famille des vins du Languedoc.
+Le terrasses-du-larzac, est un vin produit au nord-ouest de Montpellier, autour de la commune d'Aniane. Il s'agit d'une AOC à part entière dans la famille des vins du Languedoc.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Les vestiges attestent la présence de la vigne dans l'espace des terrasses du Larzac dès l’époque romaine, où une voie gallo-romaine très fréquentée passait par Lodève.
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vestiges attestent la présence de la vigne dans l'espace des terrasses du Larzac dès l’époque romaine, où une voie gallo-romaine très fréquentée passait par Lodève.
 </t>
         </is>
       </c>
@@ -546,14 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie
-Une partie de la formation des Terrasses du Larzac date des glaciers présents il y plusieurs milliers d'années sur le plateau[5].
-Géologie
-Climatologie
-Le climat de ce terroir viticole est typiquement méditerranéen. Il se caractérise par des hivers doux, des étés chauds et secs et des précipitations rares et concentrées notamment en automne de septembre à décembre (les précipitations annuelles sont proches de 800 mm). Au contraire, l'été est souvent très sec, voire aride dans l'arrière pays des garrigues, avec seulement quelques précipitations en août liées aux orages. Les vents dominants sont la tramontane, vent sec et froid qui chasse les nuages, et le marin, vent humide qui au contraire amène les nuages. Il peut parfois être très violent.
-Le taux d'ensoleillement journalier moyen est de 7 h 22, largement supérieur à la moyenne française de 4 h 46[6]. En outre, relativement "protégée" du Mistral et de la Tramontane par l'avancée des reliefs cévenols, Montpellier est la ville la moins ventée du golfe du Lion. De plus, la proximité de la mer favorise l'installation de la brise marine qui tempère les excès thermiques en été.
-La température annuelle moyenne est de 14,2 °C, supérieure à la moyenne nationale de 12,2 °C[6].
-Le tableau ci-dessous indique les températures et les précipitations pour l'année 2007 :
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une partie de la formation des Terrasses du Larzac date des glaciers présents il y plusieurs milliers d'années sur le plateau.
 </t>
         </is>
       </c>
@@ -579,84 +595,169 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat de ce terroir viticole est typiquement méditerranéen. Il se caractérise par des hivers doux, des étés chauds et secs et des précipitations rares et concentrées notamment en automne de septembre à décembre (les précipitations annuelles sont proches de 800 mm). Au contraire, l'été est souvent très sec, voire aride dans l'arrière pays des garrigues, avec seulement quelques précipitations en août liées aux orages. Les vents dominants sont la tramontane, vent sec et froid qui chasse les nuages, et le marin, vent humide qui au contraire amène les nuages. Il peut parfois être très violent.
+Le taux d'ensoleillement journalier moyen est de 7 h 22, largement supérieur à la moyenne française de 4 h 46. En outre, relativement "protégée" du Mistral et de la Tramontane par l'avancée des reliefs cévenols, Montpellier est la ville la moins ventée du golfe du Lion. De plus, la proximité de la mer favorise l'installation de la brise marine qui tempère les excès thermiques en été.
+La température annuelle moyenne est de 14,2 °C, supérieure à la moyenne nationale de 12,2 °C.
+Le tableau ci-dessous indique les températures et les précipitations pour l'année 2007 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrasses-du-larzac</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrasses-du-larzac</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Aire géographique
-Le vignoble des Terrasses du Larzac s'étend sur 32 des 168 communes des Coteaux du Languedoc, à savoir Aniane, Arboras, Le Bosc, Brissac, Causse-de-la-Selle, Ceyras, Gignac (en partie), Jonquières, Lagamas, Lauroux, Mérifons, Montoulieu, Montpeyroux, Moulès-et-Baucels, Murles, Octon, Pégairolles-de-Buèges, Pégairolles-de-l'Escalette, Poujols, Puéchabon, Saint-André-de-Sangonis, Saint-André-de-Buèges, Saint-Félix-de-Lodez, Saint-Guiraud, Saint-Jean-de-Buèges, Saint-Jean-de-Fos, Saint-Jean-de-la-Blaquière, Saint-Privat, Saint-Saturnin-de-Lucian, Soubès, Usclas-du-Bosc[8].
-Encépagement
-Quatre cépages principaux sont admis en terrasses du Larzac : le grenache noir, le mourvèdre, la syrah et le carignan noir. Cinq autres cépages accessoires sont également autorisés : le cinsault, la counoise, le lledoner pelut, la morrastel et le terret noir[3]. 
-L'encépagement est également soumis au respect de certaines proportions[3]:
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aire géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble des Terrasses du Larzac s'étend sur 32 des 168 communes des Coteaux du Languedoc, à savoir Aniane, Arboras, Le Bosc, Brissac, Causse-de-la-Selle, Ceyras, Gignac (en partie), Jonquières, Lagamas, Lauroux, Mérifons, Montoulieu, Montpeyroux, Moulès-et-Baucels, Murles, Octon, Pégairolles-de-Buèges, Pégairolles-de-l'Escalette, Poujols, Puéchabon, Saint-André-de-Sangonis, Saint-André-de-Buèges, Saint-Félix-de-Lodez, Saint-Guiraud, Saint-Jean-de-Buèges, Saint-Jean-de-Fos, Saint-Jean-de-la-Blaquière, Saint-Privat, Saint-Saturnin-de-Lucian, Soubès, Usclas-du-Bosc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrasses-du-larzac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrasses-du-larzac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Quatre cépages principaux sont admis en terrasses du Larzac : le grenache noir, le mourvèdre, la syrah et le carignan noir. Cinq autres cépages accessoires sont également autorisés : le cinsault, la counoise, le lledoner pelut, la morrastel et le terret noir. 
+L'encépagement est également soumis au respect de certaines proportions:
 les cépages principaux doivent représenter au minimum 75 %, en étant limités individuellement à 75 % ;
 la syrah et/ou le mourvèdre doivent atteindre 20 % minimum ;
 le cinsault ne peut dépasser 25 % ;
-les cépages accessoires, autre que le cinsault, sont limités à 10 %.
-Méthodes culturales
-Terroir et vins</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+les cépages accessoires, autre que le cinsault, sont limités à 10 %.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Terrasses-du-larzac</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Terrasses-du-larzac</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vinification et élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La vinification est généralement traditionnelle. Les vins doivent provenir de raisins récoltés à bonne maturité.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Terrasses-du-larzac</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Terrasses-du-larzac</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Structure des exploitations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Producteurs
-Il existe 82 producteurs en Terrasses du Larzac[9].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Producteurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe 82 producteurs en Terrasses du Larzac.
 Cave des Vignerons de Saint-Félix-Saint-Jean
 Mas de Janiny
 Cave coopérative Castelbarry
@@ -746,62 +847,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Terrasses-du-larzac</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Terrasses-du-larzac</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Type de vins et gastronomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins de l'appellation Terrasses-du-Larzac se marient très bien avec la cuisine méditerranéenne. Les différentes variétés de poissons, les légumes du soleil ou encore les viandes en sauce sont particulièrement appréciés avec ces vins. 
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Terrasses-du-larzac</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Terrasses-du-larzac</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
